--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value283.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value283.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.088605282906719</v>
+        <v>1.237273216247559</v>
       </c>
       <c r="B1">
-        <v>2.165901101694032</v>
+        <v>1.431785464286804</v>
       </c>
       <c r="C1">
-        <v>2.354312047304971</v>
+        <v>1.811576008796692</v>
       </c>
       <c r="D1">
-        <v>2.404337537781125</v>
+        <v>3.315759181976318</v>
       </c>
       <c r="E1">
-        <v>0.8965037691268135</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
